--- a/data/trans_bre/P20-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P20-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.059025793631626</v>
+        <v>-0.8956180504259963</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.009592780567911</v>
+        <v>-2.868874195777607</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.800733536964328</v>
+        <v>-1.786707394464463</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.428169754788017</v>
+        <v>-5.301344984195769</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1454541302473737</v>
+        <v>-0.1196471513359164</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2562338445568766</v>
+        <v>-0.2429660093167295</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2101708290260196</v>
+        <v>-0.204159094937739</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.4526928678519858</v>
+        <v>-0.4442895052156336</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.318205403515419</v>
+        <v>3.187292867752054</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.323610403292149</v>
+        <v>2.461146660879697</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.520076104436116</v>
+        <v>3.541168971344856</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.1118868785854535</v>
+        <v>0.1141185745546866</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6063807382573644</v>
+        <v>0.5990276595093098</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2591385838773319</v>
+        <v>0.2987964473717348</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5629397317147811</v>
+        <v>0.5668829421081953</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.00660166952132497</v>
+        <v>0.01412159761616022</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>3.264411211393544</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.465818310042827</v>
+        <v>1.465818310042826</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>1.700966554507465</v>
@@ -749,7 +749,7 @@
         <v>0.8255187255830724</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.3096572771972254</v>
+        <v>0.309657277197225</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.019347440695493</v>
+        <v>3.018001481343005</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.623587452459403</v>
+        <v>2.659153241437052</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.76536826731502</v>
+        <v>1.79122978573208</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01914829422548456</v>
+        <v>0.09565376391448173</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8792396496576098</v>
+        <v>0.914480212231563</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4640057917197711</v>
+        <v>0.4835795491702514</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3657918850204728</v>
+        <v>0.3790759135164649</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.01315603791408212</v>
+        <v>0.009663755437270228</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.080623238179232</v>
+        <v>6.048158371234964</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.966879088044704</v>
+        <v>6.062227143165702</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.716619864729057</v>
+        <v>4.602368844101244</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.8992790558997</v>
+        <v>2.865346842756053</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.723481355952365</v>
+        <v>2.894473491887826</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.427134916046512</v>
+        <v>1.458953402561904</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.380554004782182</v>
+        <v>1.356293916505352</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6942004414652964</v>
+        <v>0.6978026319185802</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>3.884044842034282</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.086955223247653</v>
+        <v>1.086955223247656</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.761628133170565</v>
@@ -849,7 +849,7 @@
         <v>0.817595498448997</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1910441664471035</v>
+        <v>0.1910441664471042</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2868326833303874</v>
+        <v>0.3279545124017883</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.3690351271001</v>
+        <v>3.573169449454523</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5859319512002669</v>
+        <v>0.6248362864523602</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.369769048563868</v>
+        <v>-1.662161165176204</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.04161312719083247</v>
+        <v>0.03317572411824777</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7245348803136537</v>
+        <v>0.7287280022204849</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08052588225627062</v>
+        <v>0.08807236832708168</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2084794475602088</v>
+        <v>-0.2298763111570955</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.284937687288685</v>
+        <v>6.085798896175861</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.16088137680516</v>
+        <v>9.989935194063163</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.047571206439826</v>
+        <v>6.82110307080028</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.823271077088437</v>
+        <v>3.407359125183405</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.016770164618541</v>
+        <v>2.204800560426969</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>5.511206603556024</v>
+        <v>6.125690679350199</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.088210825859524</v>
+        <v>2.020017212941596</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.9174389796367503</v>
+        <v>0.8255280788771536</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>2.898591259316462</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.7671338427540746</v>
+        <v>0.7671338427540725</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7847111623504354</v>
@@ -949,7 +949,7 @@
         <v>0.5988675478666093</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1321926523797993</v>
+        <v>0.1321926523797989</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.983126965917824</v>
+        <v>2.227881426608934</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.092539929961992</v>
+        <v>2.172377545765537</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.752711680991019</v>
+        <v>1.71523301993885</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.2403328978864646</v>
+        <v>-0.2945967546079213</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4218638191572202</v>
+        <v>0.4768149060760889</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3211936678541192</v>
+        <v>0.316961807912082</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.323393664541629</v>
+        <v>0.2965939283867394</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.03939712128172741</v>
+        <v>-0.04692268806061809</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.265884818084271</v>
+        <v>4.435352910024273</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.870874020570392</v>
+        <v>4.659620467280855</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.190147395943203</v>
+        <v>4.218808448603544</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.782410197714764</v>
+        <v>1.876490729465051</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.173967434878106</v>
+        <v>1.214121883545566</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8993515484883106</v>
+        <v>0.8372002804260841</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9915111600579053</v>
+        <v>0.9745005028754583</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3437105497354685</v>
+        <v>0.3587439016173397</v>
       </c>
     </row>
     <row r="16">
